--- a/001dahanghai/001jiaoyiqingdan/000template/物品模板.xlsx
+++ b/001dahanghai/001jiaoyiqingdan/000template/物品模板.xlsx
@@ -1165,8 +1165,10 @@
   <sheetPr/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
